--- a/Informes/informe_ventas.xlsx
+++ b/Informes/informe_ventas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,559 +434,517 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Subtotal</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Subtotal</t>
+          <t>Neto</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Neto</t>
+          <t>IVA</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>IVA</t>
+          <t>Costo Despacho</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Costo Despacho</t>
+          <t>Cobro Despacho</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Cobro Despacho</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>SKU</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>SKU</t>
+          <t>Cantidad</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Cantidad</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
           <t>Detalle</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>04-09-2022 14:34</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>#1321</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>93600</v>
+      </c>
+      <c r="D2" t="n">
+        <v>78655</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14945</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>04-09-2022 14:34</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>93600</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>L0029</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Libro Arica, diez mil años</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
         <is>
           <t>#1321</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>93600</v>
-      </c>
-      <c r="E2" t="n">
-        <v>78655</v>
-      </c>
-      <c r="F2" t="n">
-        <v>14945</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>93600</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>L0029</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Libro Arica, diez mil años</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>#1321</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>B0002</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Boletín del Museo Chileno de Arte Precolombino - No.7 | 1998</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
         <is>
           <t>#1321</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>B0004</t>
         </is>
       </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Boletín del Museo Chileno de Arte Precolombino - No.9 | 2004</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
         <is>
           <t>#1321</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>B0009</t>
         </is>
       </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Boletín del Museo Chileno de Arte Precolombino – Vol 12. No 1 | 2007</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
         <is>
           <t>#1321</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>B0017</t>
         </is>
       </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Boletín del Museo Chileno de Arte Precolombino – Vol 16. No 1 | 2011</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
         <is>
           <t>#1321</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>C0003</t>
         </is>
       </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Libro Cultura material aymara</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
         <is>
           <t>#1321</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>L0016</t>
         </is>
       </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Libro Awakhuni, tejiendo la historia andina - Español / Dura</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
         <is>
           <t>#1321</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>C0002</t>
         </is>
       </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>"Chile antes de Chile" Guía de sala / "Chile before Chile" Exhibition guide</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
         <is>
           <t>#1321</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>C0001</t>
         </is>
       </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Catálogo Arte precolombino chileno, colección Santa Cruz Yaconi</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
         <is>
           <t>#1321</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>C0005</t>
         </is>
       </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Catálogo "Gorros del desierto de Atacama / Headwear of the Atacama desert"</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20-09-2022 10:28</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20-09-2022 10:28</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
           <t>#1322</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>30000</v>
+      </c>
       <c r="D12" t="n">
+        <v>25210</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4790</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>30000</v>
       </c>
-      <c r="E12" t="n">
-        <v>25210</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4790</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>30000</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>L0013</t>
         </is>
       </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Libro Rapa Nui el ombligo del mundo - Inglés / Blanda</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20-09-2022 20:33</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20-09-2022 20:33</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
           <t>#1323</t>
         </is>
       </c>
+      <c r="C13" t="n">
+        <v>10000</v>
+      </c>
       <c r="D13" t="n">
-        <v>10000</v>
+        <v>8403</v>
       </c>
       <c r="E13" t="n">
-        <v>8403</v>
-      </c>
-      <c r="F13" t="n">
         <v>1597</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>$ 5.372</t>
         </is>
       </c>
+      <c r="G13" t="n">
+        <v>5384</v>
+      </c>
       <c r="H13" t="n">
-        <v>5384</v>
-      </c>
-      <c r="I13" t="n">
         <v>15384</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>C0004</t>
         </is>
       </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Catálogo El arte de ser diaguita / The art of being diaguita</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>26-09-2022 1:50</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>26-09-2022 1:50</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
           <t>#1324</t>
         </is>
       </c>
+      <c r="C14" t="n">
+        <v>40000</v>
+      </c>
       <c r="D14" t="n">
+        <v>33613</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6387</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>$ 6.212</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>13402</v>
+      </c>
+      <c r="H14" t="n">
+        <v>53402</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>L0006</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Libro Chiloé</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>27-09-2022 17:44</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>#1325</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>40000</v>
       </c>
-      <c r="E14" t="n">
+      <c r="D15" t="n">
         <v>33613</v>
       </c>
-      <c r="F14" t="n">
+      <c r="E15" t="n">
         <v>6387</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>$ 6.212</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>13402</v>
-      </c>
-      <c r="I14" t="n">
-        <v>53402</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>$ 5.569</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>5569</v>
+      </c>
+      <c r="H15" t="n">
+        <v>45569</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>L0006</t>
         </is>
       </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Libro Chiloé</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>27-09-2022 17:44</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>#1325</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>40000</v>
-      </c>
-      <c r="E15" t="n">
-        <v>33613</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6387</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>$ 5.569</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5569</v>
-      </c>
-      <c r="I15" t="n">
-        <v>45569</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>L0006</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Libro Chiloé</t>
         </is>
